--- a/biology/Neurosciences/Exploration_cérébrale/Exploration_cérébrale.xlsx
+++ b/biology/Neurosciences/Exploration_cérébrale/Exploration_cérébrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exploration_c%C3%A9r%C3%A9brale</t>
+          <t>Exploration_cérébrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>L’exploration cérébrale (IRM et EEG) est couramment utilisée dans le diagnostic. L'IRM entre dans une conception « visualiste » de la médecine et met en évidence les rapports spatiaux, anatomiques et fixes. L'EEG au contraire s'organise dans la temporalité et renvoie à la labilité des processus cérébraux, à la souffrance cérébrale (différente de la lésion) mais aussi à l'extinction de ces processus (coma, etc.)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>L’exploration cérébrale (IRM et EEG) est couramment utilisée dans le diagnostic. L'IRM entre dans une conception « visualiste » de la médecine et met en évidence les rapports spatiaux, anatomiques et fixes. L'EEG au contraire s'organise dans la temporalité et renvoie à la labilité des processus cérébraux, à la souffrance cérébrale (différente de la lésion) mais aussi à l'extinction de ces processus (coma, etc.).
 Elle repose sur quatre techniques :
 l'enregistrement des variations de courant électrique résultant des variations de potentiels de membranes des neurones (et de la glie) sur le scalp : il s'agit de l'électroencéphalogramme ;
 la mesure de la densité d'électrons atténuants plus ou moins les rayons X traversant les structures osseuses (radiographie du squelette ou artériographie) ou parenchymateuse (tomodensimétrie aux rayons X) ;
